--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Cd36</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Cd36</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H2">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I2">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J2">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N2">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q2">
-        <v>8.105127306791777</v>
+        <v>16.82951367914133</v>
       </c>
       <c r="R2">
-        <v>72.94614576112599</v>
+        <v>151.465623112272</v>
       </c>
       <c r="S2">
-        <v>0.2753363685021951</v>
+        <v>0.642615217462847</v>
       </c>
       <c r="T2">
-        <v>0.2753363685021951</v>
+        <v>0.6426152174628469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H3">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I3">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J3">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.584446</v>
       </c>
       <c r="O3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q3">
-        <v>0.02320610167577778</v>
+        <v>0.03489179390755556</v>
       </c>
       <c r="R3">
-        <v>0.208854915082</v>
+        <v>0.314026145168</v>
       </c>
       <c r="S3">
-        <v>0.0007883261447537316</v>
+        <v>0.001332302178010212</v>
       </c>
       <c r="T3">
-        <v>0.0007883261447537316</v>
+        <v>0.001332302178010211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H4">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I4">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J4">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N4">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q4">
-        <v>0.5180459213954445</v>
+        <v>1.022091542236444</v>
       </c>
       <c r="R4">
-        <v>4.662413292559</v>
+        <v>9.198823880128</v>
       </c>
       <c r="S4">
-        <v>0.01759835192161278</v>
+        <v>0.0390273653299482</v>
       </c>
       <c r="T4">
-        <v>0.01759835192161278</v>
+        <v>0.03902736532994819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01942233333333333</v>
+        <v>0.02920266666666667</v>
       </c>
       <c r="H5">
-        <v>0.058267</v>
+        <v>0.08760800000000001</v>
       </c>
       <c r="I5">
-        <v>0.3326292594093771</v>
+        <v>0.7459491676955171</v>
       </c>
       <c r="J5">
-        <v>0.3326292594093772</v>
+        <v>0.745949167695517</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N5">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q5">
-        <v>1.145289341235111</v>
+        <v>1.649239737480889</v>
       </c>
       <c r="R5">
-        <v>10.307604071116</v>
+        <v>14.843157637328</v>
       </c>
       <c r="S5">
-        <v>0.03890621284081553</v>
+        <v>0.06297428272471174</v>
       </c>
       <c r="T5">
-        <v>0.03890621284081553</v>
+        <v>0.06297428272471173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H6">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I6">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J6">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N6">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q6">
-        <v>12.18655487829155</v>
+        <v>5.731693448595333</v>
       </c>
       <c r="R6">
-        <v>109.678993904624</v>
+        <v>51.585241037358</v>
       </c>
       <c r="S6">
-        <v>0.4139850785477252</v>
+        <v>0.2188579837850307</v>
       </c>
       <c r="T6">
-        <v>0.4139850785477253</v>
+        <v>0.2188579837850306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H7">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I7">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J7">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.584446</v>
       </c>
       <c r="O7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q7">
-        <v>0.03489179390755556</v>
+        <v>0.01188323503355556</v>
       </c>
       <c r="R7">
-        <v>0.314026145168</v>
+        <v>0.106949115302</v>
       </c>
       <c r="S7">
-        <v>0.001185296598238882</v>
+        <v>0.0004537473756425291</v>
       </c>
       <c r="T7">
-        <v>0.001185296598238882</v>
+        <v>0.000453747375642529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H8">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I8">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J8">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N8">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q8">
-        <v>0.778913743312889</v>
+        <v>0.3480977233324444</v>
       </c>
       <c r="R8">
-        <v>7.010223689816001</v>
+        <v>3.132879509992</v>
       </c>
       <c r="S8">
-        <v>0.02646019900026863</v>
+        <v>0.01329170280510529</v>
       </c>
       <c r="T8">
-        <v>0.02646019900026864</v>
+        <v>0.01329170280510529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02920266666666667</v>
+        <v>0.009945666666666667</v>
       </c>
       <c r="H9">
-        <v>0.08760800000000001</v>
+        <v>0.029837</v>
       </c>
       <c r="I9">
-        <v>0.5001284459185595</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="J9">
-        <v>0.5001284459185596</v>
+        <v>0.2540508323044829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,524 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N9">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q9">
-        <v>1.722012607598222</v>
+        <v>0.5616880427268889</v>
       </c>
       <c r="R9">
-        <v>15.498113468384</v>
+        <v>5.055192384542</v>
       </c>
       <c r="S9">
-        <v>0.05849787177232682</v>
+        <v>0.0214473983387045</v>
       </c>
       <c r="T9">
-        <v>0.05849787177232683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.022676</v>
-      </c>
-      <c r="I10">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J10">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>417.3096593333333</v>
-      </c>
-      <c r="N10">
-        <v>1251.928978</v>
-      </c>
-      <c r="O10">
-        <v>0.8277575129472603</v>
-      </c>
-      <c r="P10">
-        <v>0.8277575129472603</v>
-      </c>
-      <c r="Q10">
-        <v>3.154304611680888</v>
-      </c>
-      <c r="R10">
-        <v>28.388741505128</v>
-      </c>
-      <c r="S10">
-        <v>0.1071537489858029</v>
-      </c>
-      <c r="T10">
-        <v>0.1071537489858029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.022676</v>
-      </c>
-      <c r="I11">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J11">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.194815333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.584446</v>
-      </c>
-      <c r="O11">
-        <v>0.002369984366839822</v>
-      </c>
-      <c r="P11">
-        <v>0.002369984366839822</v>
-      </c>
-      <c r="Q11">
-        <v>0.009031210832888888</v>
-      </c>
-      <c r="R11">
-        <v>0.081280897496</v>
-      </c>
-      <c r="S11">
-        <v>0.0003067960193323085</v>
-      </c>
-      <c r="T11">
-        <v>0.0003067960193323084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.022676</v>
-      </c>
-      <c r="I12">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J12">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>26.67269233333333</v>
-      </c>
-      <c r="N12">
-        <v>80.01807700000001</v>
-      </c>
-      <c r="O12">
-        <v>0.05290680667377473</v>
-      </c>
-      <c r="P12">
-        <v>0.05290680667377473</v>
-      </c>
-      <c r="Q12">
-        <v>0.2016099904502222</v>
-      </c>
-      <c r="R12">
-        <v>1.814489914052</v>
-      </c>
-      <c r="S12">
-        <v>0.006848820570382744</v>
-      </c>
-      <c r="T12">
-        <v>0.006848820570382744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.007558666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.022676</v>
-      </c>
-      <c r="I13">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="J13">
-        <v>0.1294506510780894</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>58.96764933333333</v>
-      </c>
-      <c r="N13">
-        <v>176.902948</v>
-      </c>
-      <c r="O13">
-        <v>0.1169656960121252</v>
-      </c>
-      <c r="P13">
-        <v>0.1169656960121252</v>
-      </c>
-      <c r="Q13">
-        <v>0.4457168054275555</v>
-      </c>
-      <c r="R13">
-        <v>4.011451248848</v>
-      </c>
-      <c r="S13">
-        <v>0.01514128550257149</v>
-      </c>
-      <c r="T13">
-        <v>0.01514128550257149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.00662</v>
-      </c>
-      <c r="I14">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J14">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>417.3096593333333</v>
-      </c>
-      <c r="N14">
-        <v>1251.928978</v>
-      </c>
-      <c r="O14">
-        <v>0.8277575129472603</v>
-      </c>
-      <c r="P14">
-        <v>0.8277575129472603</v>
-      </c>
-      <c r="Q14">
-        <v>0.9208633149288887</v>
-      </c>
-      <c r="R14">
-        <v>8.287769834359999</v>
-      </c>
-      <c r="S14">
-        <v>0.03128231691153709</v>
-      </c>
-      <c r="T14">
-        <v>0.03128231691153709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.00662</v>
-      </c>
-      <c r="I15">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J15">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.194815333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.584446</v>
-      </c>
-      <c r="O15">
-        <v>0.002369984366839822</v>
-      </c>
-      <c r="P15">
-        <v>0.002369984366839822</v>
-      </c>
-      <c r="Q15">
-        <v>0.002636559168888889</v>
-      </c>
-      <c r="R15">
-        <v>0.02372903252</v>
-      </c>
-      <c r="S15">
-        <v>8.956560451490042E-05</v>
-      </c>
-      <c r="T15">
-        <v>8.956560451490042E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.00662</v>
-      </c>
-      <c r="I16">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J16">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>26.67269233333333</v>
-      </c>
-      <c r="N16">
-        <v>80.01807700000001</v>
-      </c>
-      <c r="O16">
-        <v>0.05290680667377473</v>
-      </c>
-      <c r="P16">
-        <v>0.05290680667377473</v>
-      </c>
-      <c r="Q16">
-        <v>0.05885774108222222</v>
-      </c>
-      <c r="R16">
-        <v>0.5297196697400001</v>
-      </c>
-      <c r="S16">
-        <v>0.001999435181510573</v>
-      </c>
-      <c r="T16">
-        <v>0.001999435181510574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.002206666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.00662</v>
-      </c>
-      <c r="I17">
-        <v>0.03779164359397388</v>
-      </c>
-      <c r="J17">
-        <v>0.03779164359397389</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>58.96764933333333</v>
-      </c>
-      <c r="N17">
-        <v>176.902948</v>
-      </c>
-      <c r="O17">
-        <v>0.1169656960121252</v>
-      </c>
-      <c r="P17">
-        <v>0.1169656960121252</v>
-      </c>
-      <c r="Q17">
-        <v>0.1301219461955556</v>
-      </c>
-      <c r="R17">
-        <v>1.17109751576</v>
-      </c>
-      <c r="S17">
-        <v>0.004420325896411327</v>
-      </c>
-      <c r="T17">
-        <v>0.004420325896411327</v>
+        <v>0.0214473983387045</v>
       </c>
     </row>
   </sheetData>
